--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.01324398311553975</v>
+        <v>-0.01515604076933738</v>
       </c>
       <c r="D2">
-        <v>0.9894347127122551</v>
+        <v>0.9880443009350772</v>
       </c>
       <c r="E2">
         <v>0.6002209928095311</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.1454110786067911</v>
+        <v>0.1420142856458639</v>
       </c>
       <c r="D3">
-        <v>0.8844037719572122</v>
+        <v>0.8883612359869568</v>
       </c>
       <c r="E3">
         <v>0.6002209928095311</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.592098326039187</v>
+        <v>2.373651104558985</v>
       </c>
       <c r="D4">
-        <v>0.009622008422103256</v>
+        <v>0.02676738831129644</v>
       </c>
       <c r="E4">
         <v>0.6002209928095311</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.713285491232779</v>
+        <v>1.707003586460345</v>
       </c>
       <c r="D5">
-        <v>0.08684463112764629</v>
+        <v>0.1018984378686507</v>
       </c>
       <c r="E5">
         <v>0.6002209928095311</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.1381758657923931</v>
+        <v>0.1401948696939418</v>
       </c>
       <c r="D6">
-        <v>0.8901179974341646</v>
+        <v>0.8897816682873154</v>
       </c>
       <c r="E6">
         <v>0.6004946368779636</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>2.402497005172612</v>
+        <v>2.514113070475597</v>
       </c>
       <c r="D7">
-        <v>0.01639154503909279</v>
+        <v>0.01974835086073656</v>
       </c>
       <c r="E7">
         <v>0.6004946368779636</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.548099060820211</v>
+        <v>1.60616301320847</v>
       </c>
       <c r="D8">
-        <v>0.1217869052290736</v>
+        <v>0.1224975083954221</v>
       </c>
       <c r="E8">
         <v>0.6004946368779636</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.666733854567738</v>
+        <v>2.619077474768141</v>
       </c>
       <c r="D9">
-        <v>0.007732779935209599</v>
+        <v>0.015668333345499</v>
       </c>
       <c r="E9">
         <v>0.597356484616089</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.675824434109493</v>
+        <v>2.428883915500699</v>
       </c>
       <c r="D10">
-        <v>0.09395877343107606</v>
+        <v>0.02376934690438648</v>
       </c>
       <c r="E10">
         <v>0.597356484616089</v>
@@ -661,7 +661,7 @@
         <v>0.5659393920344958</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.9280681303637636</v>
+        <v>-1.089994036502469</v>
       </c>
       <c r="D11">
-        <v>0.3535056236599341</v>
+        <v>0.2875112329324598</v>
       </c>
       <c r="E11">
         <v>0.546606557354969</v>
